--- a/xlsx/海沃德 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/海沃德 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t>海沃德 (加利福尼亚州)</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%BF</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%81%A3%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東灣加州州立大學</t>
+    <t>东湾加州州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E6%A9%8B%E5%B8%82</t>
   </si>
   <si>
-    <t>船橋市</t>
+    <t>船桥市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%AD%AF</t>
   </si>
   <si>
-    <t>法魯</t>
+    <t>法鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -467,31 +467,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E6%96%AF%E7%BA%B3%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -689,19 +686,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -719,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -851,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -887,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -905,15 +902,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
   </si>
   <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%8E%BF</t>
   </si>
   <si>
@@ -923,37 +917,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -965,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%A2%85%E8%BE%BE%E5%8E%BF</t>
@@ -1013,37 +1007,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1061,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -1127,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1259,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -4885,7 +4879,7 @@
         <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4911,10 +4905,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4940,10 +4934,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4969,10 +4963,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4998,10 +4992,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5027,10 +5021,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5056,10 +5050,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5085,10 +5079,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5114,10 +5108,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5143,10 +5137,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5201,10 +5195,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5230,10 +5224,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5259,10 +5253,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5288,10 +5282,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5317,10 +5311,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5346,10 +5340,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5375,10 +5369,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5404,10 +5398,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5433,10 +5427,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5462,10 +5456,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5491,10 +5485,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5520,10 +5514,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5549,10 +5543,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5578,10 +5572,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5607,10 +5601,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5636,10 +5630,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5665,10 +5659,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5694,10 +5688,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5723,10 +5717,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5752,10 +5746,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5781,10 +5775,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5810,10 +5804,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5839,10 +5833,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5868,10 +5862,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5897,10 +5891,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5926,10 +5920,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5955,10 +5949,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5984,10 +5978,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6013,10 +6007,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6042,10 +6036,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -6071,10 +6065,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6100,10 +6094,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6129,10 +6123,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6158,10 +6152,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6187,10 +6181,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6216,10 +6210,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6245,10 +6239,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6274,10 +6268,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6303,10 +6297,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6332,10 +6326,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6361,10 +6355,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6390,10 +6384,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6419,10 +6413,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6448,10 +6442,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6477,10 +6471,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6506,10 +6500,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6535,10 +6529,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6564,10 +6558,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6593,10 +6587,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6622,10 +6616,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6651,10 +6645,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6680,10 +6674,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6709,10 +6703,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6738,10 +6732,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6767,10 +6761,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6796,10 +6790,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6825,10 +6819,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6854,10 +6848,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6883,10 +6877,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6912,10 +6906,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6941,10 +6935,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6970,10 +6964,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6999,10 +6993,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7028,10 +7022,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7057,10 +7051,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7086,10 +7080,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7115,10 +7109,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7144,10 +7138,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7173,10 +7167,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7202,10 +7196,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7231,10 +7225,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7260,10 +7254,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7289,10 +7283,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7318,10 +7312,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7347,10 +7341,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7376,10 +7370,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7405,10 +7399,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7434,10 +7428,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7463,10 +7457,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>224</v>
+      </c>
+      <c r="F195" t="s">
         <v>225</v>
-      </c>
-      <c r="F195" t="s">
-        <v>226</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7492,10 +7486,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7521,10 +7515,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7550,10 +7544,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7579,10 +7573,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7608,10 +7602,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7637,10 +7631,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7666,10 +7660,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7695,10 +7689,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7724,10 +7718,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7753,10 +7747,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7782,10 +7776,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7811,10 +7805,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7840,10 +7834,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7869,10 +7863,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7898,10 +7892,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7985,10 +7979,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8014,10 +8008,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8043,10 +8037,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8072,10 +8066,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8101,10 +8095,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8130,10 +8124,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8159,10 +8153,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8188,10 +8182,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8217,10 +8211,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8246,10 +8240,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8275,10 +8269,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8304,10 +8298,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8333,10 +8327,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8362,10 +8356,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8391,10 +8385,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8420,10 +8414,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8449,10 +8443,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8478,10 +8472,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8507,10 +8501,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8536,10 +8530,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8565,10 +8559,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8594,10 +8588,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8623,10 +8617,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8652,10 +8646,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8710,10 +8704,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8739,10 +8733,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8768,10 +8762,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8797,10 +8791,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8826,10 +8820,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8884,10 +8878,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8913,10 +8907,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8942,10 +8936,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8971,10 +8965,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9000,10 +8994,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9029,10 +9023,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9058,10 +9052,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
